--- a/biology/Zoologie/Dysdera_naouelae/Dysdera_naouelae.xlsx
+++ b/biology/Zoologie/Dysdera_naouelae/Dysdera_naouelae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dysdera naouelae est une espèce d'araignées aranéomorphes de la famille des Dysderidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dysdera naouelae est une espèce d'araignées aranéomorphes de la famille des Dysderidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Asie centrale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Asie centrale.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 3,55 mm de long sur 2,63 mm et l'abdomen 3,76 mm et la carapace de la femelle paratype 3,77 mm de long sur 2,73 mm et l'abdomen 4,41 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 3,55 mm de long sur 2,63 mm et l'abdomen 3,76 mm et la carapace de la femelle paratype 3,77 mm de long sur 2,73 mm et l'abdomen 4,41 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Bellvert et Dimitrov en 2024.
 </t>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Naouel El Jaarani Oualkadi[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Naouel El Jaarani Oualkadi.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Bellvert, Dimitrov, Zamani &amp; Arnedo, 2024 : « Integrating museum collections and molecules reveals genus-level synonymy and new species in red devil spiders (Araneae, Dysderidae) from the Middle East and Central Asia. » European Journal of Taxonomy, vol. 921, p. 201-235 (texte intégral).</t>
         </is>
